--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOUTUBE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCODE\YOUTUBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900F21DA-6AC7-431B-AE72-ABADC0516776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12140" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,16 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>asdsadsadasdasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdasdasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,22 +369,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -24,9 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>asdsadsadasdasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testetsts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -370,6 +378,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
